--- a/case3_Borate/Excel_Files/Illovo_waste_water/_HCL_Ubk_530_Illovo.xlsx
+++ b/case3_Borate/Excel_Files/Illovo_waste_water/_HCL_Ubk_530_Illovo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28820169\Downloads\BO_Papers\MEng_Code\case3_Borate\Excel_Files\Illovo_waste_water\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCAD651-AA39-4363-B56A-C661EC68F472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77764914-7389-4E6C-AEAF-164C64664354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4392" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UBK Cl" sheetId="1" r:id="rId1"/>
@@ -425,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -450,12 +450,10 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -465,7 +463,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3348,8 +3345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3386,7 +3383,7 @@
       <c r="E1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -3487,7 +3484,7 @@
         <v>0.4</v>
       </c>
       <c r="P2" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>33</v>
@@ -3516,15 +3513,15 @@
         <f t="shared" ref="C3:C27" si="0">B3*$J$5</f>
         <v>0.6</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="22">
         <f>C3*60</f>
         <v>36</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="24">
         <v>162.53</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F29" si="1">E3/1000</f>
+        <f t="shared" ref="F3:F27" si="1">E3/1000</f>
         <v>0.16253000000000001</v>
       </c>
       <c r="G3" s="1">
@@ -3547,11 +3544,11 @@
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="D4" s="24">
-        <f t="shared" ref="D4:D29" si="2">C4*60</f>
+      <c r="D4" s="22">
+        <f t="shared" ref="D4:D27" si="2">C4*60</f>
         <v>72</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="24">
         <v>296.06</v>
       </c>
       <c r="F4" s="1">
@@ -3559,7 +3556,7 @@
         <v>0.29605999999999999</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:G29" si="3">F4*(1/1000)</f>
+        <f t="shared" ref="G4:G27" si="3">F4*(1/1000)</f>
         <v>2.9606000000000001E-4</v>
       </c>
       <c r="I4" s="8" t="s">
@@ -3583,11 +3580,11 @@
         <f t="shared" si="0"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="22">
         <f t="shared" si="2"/>
         <v>107.99999999999999</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="24">
         <v>291.33</v>
       </c>
       <c r="F5" s="1">
@@ -3620,11 +3617,11 @@
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="22">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="24">
         <v>12.47</v>
       </c>
       <c r="F6" s="1">
@@ -3647,11 +3644,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="22">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="24">
         <v>180.21</v>
       </c>
       <c r="F7" s="1">
@@ -3674,11 +3671,11 @@
         <f t="shared" si="0"/>
         <v>3.5999999999999996</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="22">
         <f t="shared" si="2"/>
         <v>215.99999999999997</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="24">
         <v>162.13999999999999</v>
       </c>
       <c r="F8" s="1">
@@ -3702,11 +3699,11 @@
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="22">
         <f t="shared" si="2"/>
         <v>252</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="24">
         <v>408.36</v>
       </c>
       <c r="F9" s="1">
@@ -3730,11 +3727,11 @@
         <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="22">
         <f t="shared" si="2"/>
         <v>288</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="24">
         <v>2745.57</v>
       </c>
       <c r="F10" s="1">
@@ -3758,11 +3755,11 @@
         <f t="shared" si="0"/>
         <v>5.3999999999999995</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="22">
         <f t="shared" si="2"/>
         <v>323.99999999999994</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="24">
         <v>4469.3900000000003</v>
       </c>
       <c r="F11" s="1">
@@ -3785,11 +3782,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="22">
         <f t="shared" si="2"/>
         <v>360</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="24">
         <v>4817.26</v>
       </c>
       <c r="F12" s="1">
@@ -3813,11 +3810,11 @@
         <f t="shared" si="0"/>
         <v>6.6</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="22">
         <f t="shared" si="2"/>
         <v>396</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="24">
         <v>5493.09</v>
       </c>
       <c r="F13" s="1">
@@ -3841,11 +3838,11 @@
         <f t="shared" si="0"/>
         <v>7.1999999999999993</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="22">
         <f t="shared" si="2"/>
         <v>431.99999999999994</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="24">
         <v>4147.0200000000004</v>
       </c>
       <c r="F14" s="1">
@@ -3869,11 +3866,11 @@
         <f t="shared" si="0"/>
         <v>7.8</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="22">
         <f t="shared" si="2"/>
         <v>468</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="24">
         <v>314.49</v>
       </c>
       <c r="F15" s="1">
@@ -3897,11 +3894,11 @@
         <f t="shared" si="0"/>
         <v>8.4</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="22">
         <f t="shared" si="2"/>
         <v>504</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="24">
         <v>173.98</v>
       </c>
       <c r="F16" s="1">
@@ -3925,11 +3922,11 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="22">
         <f t="shared" si="2"/>
         <v>540</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="24">
         <v>130.13999999999999</v>
       </c>
       <c r="F17" s="1">
@@ -3953,11 +3950,11 @@
         <f t="shared" si="0"/>
         <v>9.6</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="22">
         <f t="shared" si="2"/>
         <v>576</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="24">
         <v>14.42</v>
       </c>
       <c r="F18" s="1">
@@ -3981,11 +3978,11 @@
         <f t="shared" si="0"/>
         <v>10.199999999999999</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="22">
         <f t="shared" si="2"/>
         <v>612</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="24">
         <v>50.09</v>
       </c>
       <c r="F19" s="1">
@@ -4009,11 +4006,11 @@
         <f t="shared" si="0"/>
         <v>10.799999999999999</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="22">
         <f t="shared" si="2"/>
         <v>647.99999999999989</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="24">
         <v>161.38</v>
       </c>
       <c r="F20" s="1">
@@ -4037,11 +4034,11 @@
         <f t="shared" si="0"/>
         <v>11.4</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="22">
         <f t="shared" si="2"/>
         <v>684</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="24">
         <v>162.43</v>
       </c>
       <c r="F21" s="1">
@@ -4065,11 +4062,11 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="22">
         <f t="shared" si="2"/>
         <v>720</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="24">
         <v>3.64</v>
       </c>
       <c r="F22" s="1">
@@ -4093,11 +4090,11 @@
         <f t="shared" si="0"/>
         <v>12.6</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="22">
         <f t="shared" si="2"/>
         <v>756</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="24">
         <v>175.06</v>
       </c>
       <c r="F23" s="1">
@@ -4121,11 +4118,11 @@
         <f t="shared" si="0"/>
         <v>13.2</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="22">
         <f t="shared" si="2"/>
         <v>792</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="24">
         <v>166.83</v>
       </c>
       <c r="F24" s="1">
@@ -4149,11 +4146,11 @@
         <f t="shared" si="0"/>
         <v>13.799999999999999</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="22">
         <f t="shared" si="2"/>
         <v>827.99999999999989</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="24">
         <v>27.36</v>
       </c>
       <c r="F25" s="1">
@@ -4177,11 +4174,11 @@
         <f t="shared" si="0"/>
         <v>14.399999999999999</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="22">
         <f t="shared" si="2"/>
         <v>863.99999999999989</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="24">
         <v>138.09</v>
       </c>
       <c r="F26" s="1">
@@ -4205,11 +4202,11 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="23">
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="24">
         <v>162.29</v>
       </c>
       <c r="F27" s="1">
@@ -4225,9 +4222,9 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="22"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
@@ -4235,15 +4232,9 @@
       <c r="C29" s="18"/>
       <c r="D29" s="19"/>
       <c r="E29" s="18"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" s="6"/>
@@ -5223,15 +5214,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010048117A934AEAC441AF47E945F1AED0C0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7272456f5b53c8ae1c345851aef95d27">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c39f1452-4462-4979-941b-c1317cfd14ce" xmlns:ns3="60199b31-2299-4531-8872-a3eaba744cbd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="16ed4d68a838bfbb08a7468a1792fb8f" ns2:_="" ns3:_="">
     <xsd:import namespace="c39f1452-4462-4979-941b-c1317cfd14ce"/>
@@ -5488,15 +5470,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21AAFDFA-AF70-4552-A086-9BCC58150335}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF42137A-B7F2-4A60-BAD9-4B8683F12BBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5513,4 +5496,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21AAFDFA-AF70-4552-A086-9BCC58150335}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/case3_Borate/Excel_Files/Illovo_waste_water/_HCL_Ubk_530_Illovo.xlsx
+++ b/case3_Borate/Excel_Files/Illovo_waste_water/_HCL_Ubk_530_Illovo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28820169\Downloads\BO_Papers\MEng_Code\case3_Borate\Excel_Files\Illovo_waste_water\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1979230255d33e2/Desktop/MEng/MEng_Code/case3_Borate/Excel_Files/Illovo_waste_water/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77764914-7389-4E6C-AEAF-164C64664354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{77764914-7389-4E6C-AEAF-164C64664354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB015AA3-D147-47E0-844A-79789FC47366}"/>
   <bookViews>
-    <workbookView xWindow="4392" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1416" yWindow="996" windowWidth="21624" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UBK Cl" sheetId="1" r:id="rId1"/>
@@ -239,9 +239,6 @@
     <t>blue</t>
   </si>
   <si>
-    <t>Borate</t>
-  </si>
-  <si>
     <t>time duration between fractions in min</t>
   </si>
   <si>
@@ -258,6 +255,9 @@
   </si>
   <si>
     <t>HCl</t>
+  </si>
+  <si>
+    <t>HCL</t>
   </si>
 </sst>
 </file>
@@ -1227,6 +1227,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1234,7 +1235,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1811,6 +1811,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1818,7 +1819,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3346,7 +3346,7 @@
   <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3381,7 +3381,7 @@
         <v>30</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3464,24 +3464,24 @@
         <v>20</v>
       </c>
       <c r="J2" s="8">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K2" s="1">
         <f>I2/J2</f>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="L2" s="10">
-        <f>12.222/1000</f>
-        <v>1.2222E-2</v>
+        <v>0.4</v>
+      </c>
+      <c r="L2">
+        <f>L3*0.7</f>
+        <v>8.5553999999999995E-3</v>
       </c>
       <c r="M2" s="9">
-        <v>17.5</v>
+        <v>24</v>
       </c>
       <c r="N2" s="11">
         <v>2</v>
       </c>
       <c r="O2" s="11">
-        <v>0.4</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="P2" s="1">
         <v>30</v>
@@ -3490,7 +3490,7 @@
         <v>33</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>47</v>
@@ -3502,7 +3502,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3528,7 +3528,10 @@
         <f>F3*(1/1000)</f>
         <v>1.6253E-4</v>
       </c>
-      <c r="L3" s="5"/>
+      <c r="L3" s="10">
+        <f>12.222/1000</f>
+        <v>1.2222E-2</v>
+      </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -3560,13 +3563,13 @@
         <v>2.9606000000000001E-4</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J4" s="16">
         <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -3596,14 +3599,14 @@
         <v>2.9132999999999996E-4</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J5" s="1">
         <f>J4/60</f>
         <v>0.6</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -4393,7 +4396,7 @@
         <v>30</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>0</v>
@@ -4502,7 +4505,7 @@
         <v>33</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>47</v>
@@ -4570,13 +4573,13 @@
         <v>5.4000000000000008E-6</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J4" s="16">
         <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4605,14 +4608,14 @@
         <v>1.6321000000000003E-4</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J5" s="1">
         <f>J4/60</f>
         <v>0.6</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5214,6 +5217,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010048117A934AEAC441AF47E945F1AED0C0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7272456f5b53c8ae1c345851aef95d27">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c39f1452-4462-4979-941b-c1317cfd14ce" xmlns:ns3="60199b31-2299-4531-8872-a3eaba744cbd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="16ed4d68a838bfbb08a7468a1792fb8f" ns2:_="" ns3:_="">
     <xsd:import namespace="c39f1452-4462-4979-941b-c1317cfd14ce"/>
@@ -5470,16 +5482,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21AAFDFA-AF70-4552-A086-9BCC58150335}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF42137A-B7F2-4A60-BAD9-4B8683F12BBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5496,12 +5507,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21AAFDFA-AF70-4552-A086-9BCC58150335}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/case3_Borate/Excel_Files/Illovo_waste_water/_HCL_Ubk_530_Illovo.xlsx
+++ b/case3_Borate/Excel_Files/Illovo_waste_water/_HCL_Ubk_530_Illovo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1979230255d33e2/Desktop/MEng/MEng_Code/case3_Borate/Excel_Files/Illovo_waste_water/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28820169\Desktop\MEng_Code\case3_Borate\Excel_Files\Illovo_waste_water\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{77764914-7389-4E6C-AEAF-164C64664354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB015AA3-D147-47E0-844A-79789FC47366}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D772740-54C0-4B6A-8E21-219EF94D5711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1416" yWindow="996" windowWidth="21624" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UBK Cl" sheetId="1" r:id="rId1"/>
@@ -3345,8 +3345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5217,15 +5217,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010048117A934AEAC441AF47E945F1AED0C0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7272456f5b53c8ae1c345851aef95d27">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c39f1452-4462-4979-941b-c1317cfd14ce" xmlns:ns3="60199b31-2299-4531-8872-a3eaba744cbd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="16ed4d68a838bfbb08a7468a1792fb8f" ns2:_="" ns3:_="">
     <xsd:import namespace="c39f1452-4462-4979-941b-c1317cfd14ce"/>
@@ -5482,15 +5473,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21AAFDFA-AF70-4552-A086-9BCC58150335}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF42137A-B7F2-4A60-BAD9-4B8683F12BBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5507,4 +5499,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21AAFDFA-AF70-4552-A086-9BCC58150335}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>